--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17493,6 +17493,240 @@
         <v>316.0036363636364</v>
       </c>
       <c r="K482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>310.6057142857143</v>
+      </c>
+      <c r="C483" t="n">
+        <v>303.02</v>
+      </c>
+      <c r="D483" t="n">
+        <v>319.36</v>
+      </c>
+      <c r="E483" t="n">
+        <v>321.88</v>
+      </c>
+      <c r="F483" t="n">
+        <v>322.47</v>
+      </c>
+      <c r="G483" t="n">
+        <v>331.07</v>
+      </c>
+      <c r="H483" t="n">
+        <v>322.41</v>
+      </c>
+      <c r="I483" t="n">
+        <v>318.99</v>
+      </c>
+      <c r="J483" t="n">
+        <v>318.48</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>289.6185714285714</v>
+      </c>
+      <c r="C484" t="n">
+        <v>302.1581818181818</v>
+      </c>
+      <c r="D484" t="n">
+        <v>322.0566666666667</v>
+      </c>
+      <c r="E484" t="n">
+        <v>315.0081818181818</v>
+      </c>
+      <c r="F484" t="n">
+        <v>318.8281818181818</v>
+      </c>
+      <c r="G484" t="n">
+        <v>337.3633333333333</v>
+      </c>
+      <c r="H484" t="n">
+        <v>331.8733333333333</v>
+      </c>
+      <c r="I484" t="n">
+        <v>325.9981818181818</v>
+      </c>
+      <c r="J484" t="n">
+        <v>329.2381818181818</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>315.3657142857143</v>
+      </c>
+      <c r="C485" t="n">
+        <v>318.4463636363636</v>
+      </c>
+      <c r="D485" t="n">
+        <v>338.7566666666667</v>
+      </c>
+      <c r="E485" t="n">
+        <v>333.8963636363636</v>
+      </c>
+      <c r="F485" t="n">
+        <v>332.9763636363636</v>
+      </c>
+      <c r="G485" t="n">
+        <v>335.8333333333333</v>
+      </c>
+      <c r="H485" t="n">
+        <v>340.4033333333333</v>
+      </c>
+      <c r="I485" t="n">
+        <v>337.8263636363636</v>
+      </c>
+      <c r="J485" t="n">
+        <v>334.1763636363636</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>308.9128571428571</v>
+      </c>
+      <c r="C486" t="n">
+        <v>312.8909090909091</v>
+      </c>
+      <c r="D486" t="n">
+        <v>324.3933333333333</v>
+      </c>
+      <c r="E486" t="n">
+        <v>317.5109090909091</v>
+      </c>
+      <c r="F486" t="n">
+        <v>318.2709090909091</v>
+      </c>
+      <c r="G486" t="n">
+        <v>331.8066666666667</v>
+      </c>
+      <c r="H486" t="n">
+        <v>328.7866666666667</v>
+      </c>
+      <c r="I486" t="n">
+        <v>325.9809090909091</v>
+      </c>
+      <c r="J486" t="n">
+        <v>328.3209090909091</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>310.3085714285714</v>
+      </c>
+      <c r="C487" t="n">
+        <v>309.7818181818182</v>
+      </c>
+      <c r="D487" t="n">
+        <v>320.85</v>
+      </c>
+      <c r="E487" t="n">
+        <v>319.5218181818182</v>
+      </c>
+      <c r="F487" t="n">
+        <v>317.8718181818182</v>
+      </c>
+      <c r="G487" t="n">
+        <v>325.57</v>
+      </c>
+      <c r="H487" t="n">
+        <v>326.16</v>
+      </c>
+      <c r="I487" t="n">
+        <v>321.4618181818182</v>
+      </c>
+      <c r="J487" t="n">
+        <v>319.3118181818182</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>297.7128571428572</v>
+      </c>
+      <c r="C488" t="n">
+        <v>303.3236363636364</v>
+      </c>
+      <c r="D488" t="n">
+        <v>314.8466666666667</v>
+      </c>
+      <c r="E488" t="n">
+        <v>307.5536363636364</v>
+      </c>
+      <c r="F488" t="n">
+        <v>312.6736363636364</v>
+      </c>
+      <c r="G488" t="n">
+        <v>321.9133333333333</v>
+      </c>
+      <c r="H488" t="n">
+        <v>321.3933333333333</v>
+      </c>
+      <c r="I488" t="n">
+        <v>314.3636363636364</v>
+      </c>
+      <c r="J488" t="n">
+        <v>312.3036363636364</v>
+      </c>
+      <c r="K488" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17509,7 +17743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22907,6 +23141,76 @@
       </c>
       <c r="B539" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -23075,28 +23379,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4594591465372995</v>
+        <v>-0.4725455351449624</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06662423823653796</v>
+        <v>0.07161765949026178</v>
       </c>
       <c r="M2" t="n">
-        <v>9.54228135430342</v>
+        <v>9.49492180658901</v>
       </c>
       <c r="N2" t="n">
-        <v>146.7859402856318</v>
+        <v>145.9740203215631</v>
       </c>
       <c r="O2" t="n">
-        <v>12.11552476311413</v>
+        <v>12.08197087902314</v>
       </c>
       <c r="P2" t="n">
-        <v>321.3426879901553</v>
+        <v>321.4797279752059</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23152,28 +23456,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3785762928780431</v>
+        <v>-0.3948891472992677</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07030528240810274</v>
+        <v>0.07747398800303429</v>
       </c>
       <c r="M3" t="n">
-        <v>7.76361235163427</v>
+        <v>7.75060560722418</v>
       </c>
       <c r="N3" t="n">
-        <v>94.73492426003789</v>
+        <v>94.25308205095759</v>
       </c>
       <c r="O3" t="n">
-        <v>9.733186747414122</v>
+        <v>9.70840265187624</v>
       </c>
       <c r="P3" t="n">
-        <v>323.2973867760879</v>
+        <v>323.4677463772696</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23229,28 +23533,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4555913228880973</v>
+        <v>-0.4690208889976792</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1223171421393652</v>
+        <v>0.1304432239337906</v>
       </c>
       <c r="M4" t="n">
-        <v>6.727751206651341</v>
+        <v>6.751647186474454</v>
       </c>
       <c r="N4" t="n">
-        <v>76.50040458176991</v>
+        <v>76.46779591796492</v>
       </c>
       <c r="O4" t="n">
-        <v>8.746450970637742</v>
+        <v>8.744586663643108</v>
       </c>
       <c r="P4" t="n">
-        <v>339.4141160833266</v>
+        <v>339.5524220719767</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23306,28 +23610,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4406317584389347</v>
+        <v>-0.4560358038927419</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09826064472297669</v>
+        <v>0.1058195358180837</v>
       </c>
       <c r="M5" t="n">
-        <v>7.648621399359695</v>
+        <v>7.655170488704678</v>
       </c>
       <c r="N5" t="n">
-        <v>91.22251404399067</v>
+        <v>91.18789561151908</v>
       </c>
       <c r="O5" t="n">
-        <v>9.55104779822563</v>
+        <v>9.549235341718157</v>
       </c>
       <c r="P5" t="n">
-        <v>335.6637610591052</v>
+        <v>335.8249373974478</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23383,28 +23687,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.429403359020034</v>
+        <v>-0.4383824315895867</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09620334670080766</v>
+        <v>0.1018157568929908</v>
       </c>
       <c r="M6" t="n">
-        <v>7.360844272093045</v>
+        <v>7.33949366906019</v>
       </c>
       <c r="N6" t="n">
-        <v>87.15067995655549</v>
+        <v>86.54236774915539</v>
       </c>
       <c r="O6" t="n">
-        <v>9.335452852248546</v>
+        <v>9.302815044337676</v>
       </c>
       <c r="P6" t="n">
-        <v>334.4679198339508</v>
+        <v>334.5620527542288</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23460,28 +23764,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.389060919206263</v>
+        <v>-0.3973712636524087</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09131108639658192</v>
+        <v>0.09677892899907825</v>
       </c>
       <c r="M7" t="n">
-        <v>6.878053933517196</v>
+        <v>6.846253946115462</v>
       </c>
       <c r="N7" t="n">
-        <v>77.67481753157713</v>
+        <v>77.06509169967708</v>
       </c>
       <c r="O7" t="n">
-        <v>8.813331806506387</v>
+        <v>8.778672547696324</v>
       </c>
       <c r="P7" t="n">
-        <v>343.4016196895555</v>
+        <v>343.487408671866</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23537,28 +23841,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2790979127202573</v>
+        <v>-0.2871177867998094</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04324792622374796</v>
+        <v>0.04659704829106126</v>
       </c>
       <c r="M8" t="n">
-        <v>7.38682652768631</v>
+        <v>7.363520590538387</v>
       </c>
       <c r="N8" t="n">
-        <v>89.48542192578219</v>
+        <v>88.86535185936221</v>
       </c>
       <c r="O8" t="n">
-        <v>9.459673457671897</v>
+        <v>9.426842093689817</v>
       </c>
       <c r="P8" t="n">
-        <v>338.4049363652185</v>
+        <v>338.4868006930641</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23614,28 +23918,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2137291966893858</v>
+        <v>-0.2189620151171941</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K9" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02000680807728716</v>
+        <v>0.02143686868322958</v>
       </c>
       <c r="M9" t="n">
-        <v>8.429979002400499</v>
+        <v>8.388826201095403</v>
       </c>
       <c r="N9" t="n">
-        <v>114.6518282732147</v>
+        <v>113.7687173458062</v>
       </c>
       <c r="O9" t="n">
-        <v>10.70755939853778</v>
+        <v>10.6662419504625</v>
       </c>
       <c r="P9" t="n">
-        <v>331.3408585029243</v>
+        <v>331.3949538245904</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23691,28 +23995,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2004879380770719</v>
+        <v>-0.1996405513801292</v>
       </c>
       <c r="J10" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K10" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01414951813785048</v>
+        <v>0.01432681516617962</v>
       </c>
       <c r="M10" t="n">
-        <v>9.580933714954218</v>
+        <v>9.542477950223919</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0335931392503</v>
+        <v>145.7108333105548</v>
       </c>
       <c r="O10" t="n">
-        <v>12.12574093155756</v>
+        <v>12.07107424012274</v>
       </c>
       <c r="P10" t="n">
-        <v>328.422659812528</v>
+        <v>328.4140625710479</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23749,7 +24053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47723,6 +48027,348 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-46.613390584634196,168.8317368948812</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-46.6128525012729,168.83218025541322</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-46.61219305381203,168.8323531944263</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-46.61154663898196,168.8323466309982</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-46.61092557209962,168.83230573329195</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-46.61030036090602,168.83215660446487</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-46.60968979202646,168.8319588502637</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-46.609112838443096,168.83161546009347</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-46.608551824240045,168.83124171657542</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.613471068059816,168.83198446856693</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.61285580623109,168.83219042171348</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.61218699166134,168.8323191398295</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.61154855631994,168.83243621546734</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.610925570347355,168.83235323220552</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.61030883754115,168.83207545061978</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.609719108475666,168.83184298900824</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.609137366614874,168.83153127230864</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-46.60858947688264,168.8311124820295</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-46.613372330476906,168.83168074390716</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-46.612793343072006,168.8319982810014</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-46.61214944956777,168.83210824566265</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-46.611543286071864,168.83218997968044</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-46.61092557704398,168.83216870260952</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-46.61030677675441,168.83209518029068</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-46.60974553344827,168.83173855461555</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-46.609178764320454,168.83138918273283</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-46.608606760011824,168.83105316119693</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-46.61339707657752,168.8317568645498</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-46.61281464758663,168.8320638149058</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-46.61218173878849,168.83228963146493</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-46.61154785803047,168.8324035886578</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-46.61092557007748,168.8323605005117</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-46.61030135314229,168.83214710499578</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-46.60970954630801,168.83188077962447</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-46.60913730616155,168.83153147980227</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-46.60858626651877,168.8311235009357</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-46.61339172414853,168.83174040010536</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-46.612826570568785,168.83210049075194</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-46.61218970426892,168.83233437810293</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-46.61154729695714,168.8323773734381</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-46.610925569883925,168.83236570570978</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-46.61029295278181,168.83222752809363</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-46.60970140916162,168.83191293836788</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-46.60912148965024,168.8315857666802</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-46.60855473553228,168.83123172421972</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-46.61344002740941,168.8318889846766</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-46.61285133686759,168.83217667361578</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-46.61220319983684,168.83241019064263</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-46.61155063616808,168.83253339667417</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-46.610925567341155,168.83243350371256</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-46.61028802747692,168.83227468155167</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-46.60968664248873,168.83197129748558</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-46.60909664644163,168.83167103556758</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-46.608530207468995,168.83131591114943</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -23224,7 +23224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23315,35 +23315,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23402,27 +23407,28 @@
       <c r="P2" t="n">
         <v>321.4797279752059</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.83540101625906 -46.61458167150412, 168.8250784146714 -46.61122570149356)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.8354010162591</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.61458167150412</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.8250784146714</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.61122570149356</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.8302397154652</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.61290368649884</v>
       </c>
     </row>
@@ -23479,27 +23485,28 @@
       <c r="P3" t="n">
         <v>323.4677463772696</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.83575486174763 -46.6140144892754, 168.82543231486082 -46.61065853255986)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.8357548617476</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.6140144892754</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.8254323148608</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.61065853255986</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.8305935883042</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.61233651091763</v>
       </c>
     </row>
@@ -23556,27 +23563,28 @@
       <c r="P4" t="n">
         <v>339.5524220719767</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.83638626007635 -46.61291091015934, 168.8253342039851 -46.610943343597064)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.8363862600764</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.61291091015934</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.8253342039851</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.61094334359706</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.8308602320307</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.6119271268782</v>
       </c>
     </row>
@@ -23633,27 +23641,28 @@
       <c r="P5" t="n">
         <v>335.8249373974478</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.8365428321209 -46.61163637294116, 168.8251328692953 -46.61139201499662)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.8365428321209</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.61163637294116</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.8251328692953</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.61139201499662</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.8308378507081</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.61151419396889</v>
       </c>
     </row>
@@ -23710,27 +23719,28 @@
       <c r="P6" t="n">
         <v>334.5620527542288</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.83651159776684 -46.61092534031562, 168.8250962115713 -46.61092560883404)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.8365115977668</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.61092534031562</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.8250962115713</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.61092560883404</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.8308039046691</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.61092547457483</v>
       </c>
     </row>
@@ -23787,27 +23797,28 @@
       <c r="P7" t="n">
         <v>343.487408671866</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.83642579076962 -46.609854352573564, 168.825139653368 -46.61103306685965)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.8364257907696</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.60985435257356</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.825139653368</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.61103306685965</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.8307827220688</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.61044370971661</v>
       </c>
     </row>
@@ -23864,27 +23875,28 @@
       <c r="P8" t="n">
         <v>338.4868006930641</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.83590610192104 -46.60869092569466, 168.82519161808477 -46.611401854769774)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.835906101921</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.60869092569466</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.8251916180848</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.61140185476977</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.8305488600029</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.61004639023221</v>
       </c>
     </row>
@@ -23941,27 +23953,28 @@
       <c r="P9" t="n">
         <v>331.3949538245904</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.83544734156754 -46.607996326135726, 168.82493478151653 -46.61105899208458)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.8354473415675</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.60799632613573</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.8249347815165</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.61105899208458</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.8301910615421</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.60952765911016</v>
       </c>
     </row>
@@ -24018,27 +24031,28 @@
       <c r="P10" t="n">
         <v>328.4140625710479</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.83506743582618 -46.60743710463639, 168.8245549395811 -46.61049975933163)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.8350674358262</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.60743710463639</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.8245549395811</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.61049975933163</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.8298111877036</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.60896843198401</v>
       </c>
     </row>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17727,6 +17727,240 @@
         <v>312.3036363636364</v>
       </c>
       <c r="K488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>316.0942857142857</v>
+      </c>
+      <c r="C489" t="n">
+        <v>314.2254545454546</v>
+      </c>
+      <c r="D489" t="n">
+        <v>321.05</v>
+      </c>
+      <c r="E489" t="n">
+        <v>328.8954545454546</v>
+      </c>
+      <c r="F489" t="n">
+        <v>321.9954545454545</v>
+      </c>
+      <c r="G489" t="n">
+        <v>335.35</v>
+      </c>
+      <c r="H489" t="n">
+        <v>338.92</v>
+      </c>
+      <c r="I489" t="n">
+        <v>329.7754545454546</v>
+      </c>
+      <c r="J489" t="n">
+        <v>326.4354545454545</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>300.79</v>
+      </c>
+      <c r="C490" t="n">
+        <v>307.2036363636363</v>
+      </c>
+      <c r="D490" t="n">
+        <v>330.0333333333333</v>
+      </c>
+      <c r="E490" t="n">
+        <v>312.0236363636364</v>
+      </c>
+      <c r="F490" t="n">
+        <v>313.2136363636364</v>
+      </c>
+      <c r="G490" t="n">
+        <v>333.3366666666667</v>
+      </c>
+      <c r="H490" t="n">
+        <v>327.2166666666667</v>
+      </c>
+      <c r="I490" t="n">
+        <v>323.9836363636364</v>
+      </c>
+      <c r="J490" t="n">
+        <v>325.7736363636364</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>318.4071428571428</v>
+      </c>
+      <c r="C491" t="n">
+        <v>318.5418181818182</v>
+      </c>
+      <c r="D491" t="n">
+        <v>323.9</v>
+      </c>
+      <c r="E491" t="n">
+        <v>324.2218181818182</v>
+      </c>
+      <c r="F491" t="n">
+        <v>325.9118181818182</v>
+      </c>
+      <c r="G491" t="n">
+        <v>331.47</v>
+      </c>
+      <c r="H491" t="n">
+        <v>330.03</v>
+      </c>
+      <c r="I491" t="n">
+        <v>325.4018181818182</v>
+      </c>
+      <c r="J491" t="n">
+        <v>329.7318181818182</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>314.1471428571429</v>
+      </c>
+      <c r="C492" t="n">
+        <v>321.3981818181818</v>
+      </c>
+      <c r="D492" t="n">
+        <v>322.5633333333333</v>
+      </c>
+      <c r="E492" t="n">
+        <v>324.7181818181818</v>
+      </c>
+      <c r="F492" t="n">
+        <v>320.9981818181818</v>
+      </c>
+      <c r="G492" t="n">
+        <v>333.5866666666667</v>
+      </c>
+      <c r="H492" t="n">
+        <v>334.2866666666667</v>
+      </c>
+      <c r="I492" t="n">
+        <v>331.9581818181818</v>
+      </c>
+      <c r="J492" t="n">
+        <v>331.9381818181818</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>311.3828571428572</v>
+      </c>
+      <c r="C493" t="n">
+        <v>311.8272727272728</v>
+      </c>
+      <c r="D493" t="n">
+        <v>325.0433333333333</v>
+      </c>
+      <c r="E493" t="n">
+        <v>321.0272727272728</v>
+      </c>
+      <c r="F493" t="n">
+        <v>317.6572727272728</v>
+      </c>
+      <c r="G493" t="n">
+        <v>325.3566666666667</v>
+      </c>
+      <c r="H493" t="n">
+        <v>324.3266666666667</v>
+      </c>
+      <c r="I493" t="n">
+        <v>321.1372727272728</v>
+      </c>
+      <c r="J493" t="n">
+        <v>322.3972727272728</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>327.65</v>
+      </c>
+      <c r="C494" t="n">
+        <v>327.699090909091</v>
+      </c>
+      <c r="D494" t="n">
+        <v>328.3933333333334</v>
+      </c>
+      <c r="E494" t="n">
+        <v>317.1790909090909</v>
+      </c>
+      <c r="F494" t="n">
+        <v>313.5790909090909</v>
+      </c>
+      <c r="G494" t="n">
+        <v>322.6966666666667</v>
+      </c>
+      <c r="H494" t="n">
+        <v>324.7466666666667</v>
+      </c>
+      <c r="I494" t="n">
+        <v>321.949090909091</v>
+      </c>
+      <c r="J494" t="n">
+        <v>320.3390909090909</v>
+      </c>
+      <c r="K494" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17743,7 +17977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23211,6 +23445,66 @@
       </c>
       <c r="B546" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -23384,28 +23678,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4725455351449624</v>
+        <v>-0.455947497300171</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07161765949026178</v>
+        <v>0.0683611851720356</v>
       </c>
       <c r="M2" t="n">
-        <v>9.49492180658901</v>
+        <v>9.476023517403569</v>
       </c>
       <c r="N2" t="n">
-        <v>145.9740203215631</v>
+        <v>145.1480015563282</v>
       </c>
       <c r="O2" t="n">
-        <v>12.08197087902314</v>
+        <v>12.04773844156355</v>
       </c>
       <c r="P2" t="n">
-        <v>321.4797279752059</v>
+        <v>321.3033426220012</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23462,28 +23756,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3948891472992677</v>
+        <v>-0.3843805741085939</v>
       </c>
       <c r="J3" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07747398800303429</v>
+        <v>0.07518547557155408</v>
       </c>
       <c r="M3" t="n">
-        <v>7.75060560722418</v>
+        <v>7.723734011807835</v>
       </c>
       <c r="N3" t="n">
-        <v>94.25308205095759</v>
+        <v>93.67057699666974</v>
       </c>
       <c r="O3" t="n">
-        <v>9.70840265187624</v>
+        <v>9.678356110242573</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4677463772696</v>
+        <v>323.3562945203446</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23540,28 +23834,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4690208889976792</v>
+        <v>-0.4758825360867183</v>
       </c>
       <c r="J4" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1304432239337906</v>
+        <v>0.1370109064958073</v>
       </c>
       <c r="M4" t="n">
-        <v>6.751647186474454</v>
+        <v>6.701907171558301</v>
       </c>
       <c r="N4" t="n">
-        <v>76.46779591796492</v>
+        <v>75.50580385817236</v>
       </c>
       <c r="O4" t="n">
-        <v>8.744586663643108</v>
+        <v>8.689407566581991</v>
       </c>
       <c r="P4" t="n">
-        <v>339.5524220719767</v>
+        <v>339.6239282963759</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23618,28 +23912,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4560358038927419</v>
+        <v>-0.4640042180710593</v>
       </c>
       <c r="J5" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K5" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1058195358180837</v>
+        <v>0.1113715542321071</v>
       </c>
       <c r="M5" t="n">
-        <v>7.655170488704678</v>
+        <v>7.605131180362743</v>
       </c>
       <c r="N5" t="n">
-        <v>91.18789561151908</v>
+        <v>90.34559977974622</v>
       </c>
       <c r="O5" t="n">
-        <v>9.549235341718157</v>
+        <v>9.505030235604</v>
       </c>
       <c r="P5" t="n">
-        <v>335.8249373974478</v>
+        <v>335.9094758309425</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23696,28 +23990,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4383824315895867</v>
+        <v>-0.4511963571300978</v>
       </c>
       <c r="J6" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1018157568929908</v>
+        <v>0.1094169426079529</v>
       </c>
       <c r="M6" t="n">
-        <v>7.33949366906019</v>
+        <v>7.302759485762794</v>
       </c>
       <c r="N6" t="n">
-        <v>86.54236774915539</v>
+        <v>85.82122536503542</v>
       </c>
       <c r="O6" t="n">
-        <v>9.302815044337676</v>
+        <v>9.263974598682545</v>
       </c>
       <c r="P6" t="n">
-        <v>334.5620527542288</v>
+        <v>334.6980099389227</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23774,28 +24068,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3973712636524087</v>
+        <v>-0.4057147860477431</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K7" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09677892899907825</v>
+        <v>0.1025879568285775</v>
       </c>
       <c r="M7" t="n">
-        <v>6.846253946115462</v>
+        <v>6.798576306479418</v>
       </c>
       <c r="N7" t="n">
-        <v>77.06509169967708</v>
+        <v>76.36404019533593</v>
       </c>
       <c r="O7" t="n">
-        <v>8.778672547696324</v>
+        <v>8.738652081147064</v>
       </c>
       <c r="P7" t="n">
-        <v>343.487408671866</v>
+        <v>343.5746644227144</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23852,28 +24146,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2871177867998094</v>
+        <v>-0.290478628661373</v>
       </c>
       <c r="J8" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K8" t="n">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04659704829106126</v>
+        <v>0.04876913773764602</v>
       </c>
       <c r="M8" t="n">
-        <v>7.363520590538387</v>
+        <v>7.324658448472583</v>
       </c>
       <c r="N8" t="n">
-        <v>88.86535185936221</v>
+        <v>87.97092698253657</v>
       </c>
       <c r="O8" t="n">
-        <v>9.426842093689817</v>
+        <v>9.37928179460115</v>
       </c>
       <c r="P8" t="n">
-        <v>338.4868006930641</v>
+        <v>338.5217991837484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23930,28 +24224,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2189620151171941</v>
+        <v>-0.2191572183068601</v>
       </c>
       <c r="J9" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K9" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02143686868322958</v>
+        <v>0.02205905825241894</v>
       </c>
       <c r="M9" t="n">
-        <v>8.388826201095403</v>
+        <v>8.314443761250063</v>
       </c>
       <c r="N9" t="n">
-        <v>113.7687173458062</v>
+        <v>112.2883287451999</v>
       </c>
       <c r="O9" t="n">
-        <v>10.6662419504625</v>
+        <v>10.59661874114568</v>
       </c>
       <c r="P9" t="n">
-        <v>331.3949538245904</v>
+        <v>331.3971663831016</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24008,28 +24302,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1996405513801292</v>
+        <v>-0.1922170577773041</v>
       </c>
       <c r="J10" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K10" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01432681516617962</v>
+        <v>0.01361822256893219</v>
       </c>
       <c r="M10" t="n">
-        <v>9.542477950223919</v>
+        <v>9.464699817410937</v>
       </c>
       <c r="N10" t="n">
-        <v>145.7108333105548</v>
+        <v>143.9505047240773</v>
       </c>
       <c r="O10" t="n">
-        <v>12.07107424012274</v>
+        <v>11.99793751959383</v>
       </c>
       <c r="P10" t="n">
-        <v>328.4140625710479</v>
+        <v>328.3367571063524</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24067,7 +24361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48383,6 +48677,348 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-46.613369536470906,168.8316721493738</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-46.612809529765094,168.83204807217933</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-46.612189254665594,168.83233185242216</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-46.61154468149499,168.83225517402482</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-46.610925571872414,168.83231192261613</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-46.61030612574263,168.8321014129751</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-46.60974093825694,168.8317567153512</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-46.60915058679218,168.83148589671146</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-46.608579667610755,168.83114615029893</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-46.61342822690207,168.83185268532418</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-46.61283645757118,168.83213090383475</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-46.61216905992637,168.83221840730667</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-46.611549389030024,168.83247512350258</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-46.610925567607175,168.832426460688</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-46.610303413938134,168.8321273753282</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-46.6097046826087,168.83190000141255</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-46.60913031584595,168.8315554726185</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-46.60857735131022,168.8311541005081</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-46.61336066686736,168.83164486594944</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-46.61279297701475,168.8319971549898</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-46.6121828478122,168.83229586147576</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-46.611545985564334,168.8323161018841</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-46.61092557373748,168.8322608429071</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-46.61030089967695,168.83215144638214</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-46.60971339802506,168.8318655572719</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-46.60913527938418,168.8315384362999</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-46.60859120456067,168.83110655213198</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-46.61337700358751,168.83169511868758</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-46.6127820231819,168.83196346043943</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-46.61218585266529,168.83231274143893</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-46.61154584706716,168.83230963103944</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-46.61092557139383,168.83232492968247</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-46.61030375066914,168.83212415152622</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-46.60972658471867,168.83181344212454</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-46.609158226168894,168.83145967604992</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-46.608598926609304,168.83108004777907</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-46.61338760436542,168.83172772737254</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-46.61281872650286,168.83207636190392</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-46.612180277574325,168.83228142300513</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-46.611546876909166,168.83235774757807</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-46.610925569779766,168.83236850394837</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-46.6102926654355,168.83223027907044</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-46.609695729675714,168.83193538418595</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-46.60912035376216,168.83158966537454</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-46.60856553435037,168.8311946596696</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-46.61332522126154,168.8315358334568</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-46.6127578598715,168.83188913301373</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-46.612172746692174,168.83223911787377</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-46.61154795061205,168.83240791440613</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-46.61092556778696,168.83242169419665</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-46.610289082580366,168.83226458031015</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-46.6096970307947,168.83193024205346</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-46.609123195072996,168.831579913178</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-46.60855833089739,168.83121938393205</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17961,6 +17961,70 @@
         <v>320.3390909090909</v>
       </c>
       <c r="K494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="n">
+        <v>357.7133333333333</v>
+      </c>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>323.7381818181818</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>311.1814285714286</v>
+      </c>
+      <c r="C496" t="n">
+        <v>303.98</v>
+      </c>
+      <c r="D496" t="n">
+        <v>312.0466666666667</v>
+      </c>
+      <c r="E496" t="n">
+        <v>315.36</v>
+      </c>
+      <c r="F496" t="n">
+        <v>315.66</v>
+      </c>
+      <c r="G496" t="n">
+        <v>323.8133333333333</v>
+      </c>
+      <c r="H496" t="n">
+        <v>322.2833333333333</v>
+      </c>
+      <c r="I496" t="n">
+        <v>312.47</v>
+      </c>
+      <c r="J496" t="n">
+        <v>307.81</v>
+      </c>
+      <c r="K496" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17977,7 +18041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B552"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23505,6 +23569,26 @@
       </c>
       <c r="B552" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -23678,28 +23762,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.455947497300171</v>
+        <v>-0.4551013563860364</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0683611851720356</v>
+        <v>0.06845042132679291</v>
       </c>
       <c r="M2" t="n">
-        <v>9.476023517403569</v>
+        <v>9.455815910356678</v>
       </c>
       <c r="N2" t="n">
-        <v>145.1480015563282</v>
+        <v>144.7790728640714</v>
       </c>
       <c r="O2" t="n">
-        <v>12.04773844156355</v>
+        <v>12.03241758185243</v>
       </c>
       <c r="P2" t="n">
-        <v>321.3033426220012</v>
+        <v>321.2943199146157</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23756,28 +23840,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3843805741085939</v>
+        <v>-0.3890801460069413</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K3" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07518547557155408</v>
+        <v>0.0770799120746849</v>
       </c>
       <c r="M3" t="n">
-        <v>7.723734011807835</v>
+        <v>7.728082923381898</v>
       </c>
       <c r="N3" t="n">
-        <v>93.67057699666974</v>
+        <v>93.65732025193441</v>
       </c>
       <c r="O3" t="n">
-        <v>9.678356110242573</v>
+        <v>9.677671220491757</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3562945203446</v>
+        <v>323.4062910485176</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23834,28 +23918,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4758825360867183</v>
+        <v>-0.4834671129391416</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1370109064958073</v>
+        <v>0.1404391389677188</v>
       </c>
       <c r="M4" t="n">
-        <v>6.701907171558301</v>
+        <v>6.725770140228261</v>
       </c>
       <c r="N4" t="n">
-        <v>75.50580385817236</v>
+        <v>75.91239061461962</v>
       </c>
       <c r="O4" t="n">
-        <v>8.689407566581991</v>
+        <v>8.712771695311408</v>
       </c>
       <c r="P4" t="n">
-        <v>339.6239282963759</v>
+        <v>339.7034458002865</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23912,28 +23996,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4640042180710593</v>
+        <v>-0.4681526674303885</v>
       </c>
       <c r="J5" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1113715542321071</v>
+        <v>0.1134167962233836</v>
       </c>
       <c r="M5" t="n">
-        <v>7.605131180362743</v>
+        <v>7.606608092299211</v>
       </c>
       <c r="N5" t="n">
-        <v>90.34559977974622</v>
+        <v>90.29972878939499</v>
       </c>
       <c r="O5" t="n">
-        <v>9.505030235604</v>
+        <v>9.502616944263037</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9094758309425</v>
+        <v>335.9536568624802</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23990,28 +24074,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4511963571300978</v>
+        <v>-0.4547937345567502</v>
       </c>
       <c r="J6" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K6" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1094169426079529</v>
+        <v>0.111300768225161</v>
       </c>
       <c r="M6" t="n">
-        <v>7.302759485762794</v>
+        <v>7.301395516513994</v>
       </c>
       <c r="N6" t="n">
-        <v>85.82122536503542</v>
+        <v>85.74069708284185</v>
       </c>
       <c r="O6" t="n">
-        <v>9.263974598682545</v>
+        <v>9.259627264789973</v>
       </c>
       <c r="P6" t="n">
-        <v>334.6980099389227</v>
+        <v>334.736334458178</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24068,28 +24152,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4057147860477431</v>
+        <v>-0.3985787732703783</v>
       </c>
       <c r="J7" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1025879568285775</v>
+        <v>0.09824313148396191</v>
       </c>
       <c r="M7" t="n">
-        <v>6.798576306479418</v>
+        <v>6.850304046084365</v>
       </c>
       <c r="N7" t="n">
-        <v>76.36404019533593</v>
+        <v>77.68574782634907</v>
       </c>
       <c r="O7" t="n">
-        <v>8.738652081147064</v>
+        <v>8.813951884730768</v>
       </c>
       <c r="P7" t="n">
-        <v>343.5746644227144</v>
+        <v>343.4999151634646</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24146,28 +24230,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.290478628661373</v>
+        <v>-0.294595352697325</v>
       </c>
       <c r="J8" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K8" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04876913773764602</v>
+        <v>0.05022033652874636</v>
       </c>
       <c r="M8" t="n">
-        <v>7.324658448472583</v>
+        <v>7.326522649312326</v>
       </c>
       <c r="N8" t="n">
-        <v>87.97092698253657</v>
+        <v>87.94048916923484</v>
       </c>
       <c r="O8" t="n">
-        <v>9.37928179460115</v>
+        <v>9.3776590452647</v>
       </c>
       <c r="P8" t="n">
-        <v>338.5217991837484</v>
+        <v>338.5645697049446</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24224,28 +24308,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2191572183068601</v>
+        <v>-0.2255037700812274</v>
       </c>
       <c r="J9" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K9" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02205905825241894</v>
+        <v>0.02334667064934082</v>
       </c>
       <c r="M9" t="n">
-        <v>8.314443761250063</v>
+        <v>8.325105821322007</v>
       </c>
       <c r="N9" t="n">
-        <v>112.2883287451999</v>
+        <v>112.4445391096982</v>
       </c>
       <c r="O9" t="n">
-        <v>10.59661874114568</v>
+        <v>10.60398694405544</v>
       </c>
       <c r="P9" t="n">
-        <v>331.3971663831016</v>
+        <v>331.463903910736</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24302,28 +24386,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1922170577773041</v>
+        <v>-0.1988646387411266</v>
       </c>
       <c r="J10" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K10" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01361822256893219</v>
+        <v>0.01463071688601358</v>
       </c>
       <c r="M10" t="n">
-        <v>9.464699817410937</v>
+        <v>9.456931455109498</v>
       </c>
       <c r="N10" t="n">
-        <v>143.9505047240773</v>
+        <v>143.8377651903429</v>
       </c>
       <c r="O10" t="n">
-        <v>11.99793751959383</v>
+        <v>11.99323831124617</v>
       </c>
       <c r="P10" t="n">
-        <v>328.3367571063524</v>
+        <v>328.4064858596358</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24361,7 +24445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49019,6 +49103,92 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-46.61033624702257,168.8318130329808</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-46.60857022740973,168.8311785517655</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-46.61338837682486,168.8317301035098</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-46.61284881979949,168.8321689309284</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-46.61220949425483,168.83244555019766</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-46.61154845815921,168.83243162898873</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-46.6109255688069,168.8323945536529</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-46.61029058666242,168.83225018066736</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-46.60968939962511,168.8319604010652</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-46.609090018817255,168.83169378338957</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-46.60851448007516,168.83136989165257</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35787,7 +35787,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-46.608573743225534,168.83116648448652</t>
+          <t>-46.60857374322553,168.83116648448652</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K496"/>
+  <dimension ref="A1:K497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18027,6 +18027,45 @@
       <c r="K496" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>328.8114285714286</v>
+      </c>
+      <c r="C497" t="n">
+        <v>322.5718181818182</v>
+      </c>
+      <c r="D497" t="n">
+        <v>328.0033333333333</v>
+      </c>
+      <c r="E497" t="n">
+        <v>336.3318181818182</v>
+      </c>
+      <c r="F497" t="n">
+        <v>327.0218181818182</v>
+      </c>
+      <c r="G497" t="n">
+        <v>340.7766666666667</v>
+      </c>
+      <c r="H497" t="n">
+        <v>341.1666666666667</v>
+      </c>
+      <c r="I497" t="n">
+        <v>332.6918181818182</v>
+      </c>
+      <c r="J497" t="n">
+        <v>323.6218181818182</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18041,7 +18080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23589,6 +23628,26 @@
       </c>
       <c r="B554" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-1.03</v>
       </c>
     </row>
   </sheetData>
@@ -23762,28 +23821,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4551013563860364</v>
+        <v>-0.445261715472212</v>
       </c>
       <c r="J2" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06845042132679291</v>
+        <v>0.06562861433690537</v>
       </c>
       <c r="M2" t="n">
-        <v>9.455815910356678</v>
+        <v>9.481328297296267</v>
       </c>
       <c r="N2" t="n">
-        <v>144.7790728640714</v>
+        <v>145.3617887521191</v>
       </c>
       <c r="O2" t="n">
-        <v>12.03241758185243</v>
+        <v>12.05660768011131</v>
       </c>
       <c r="P2" t="n">
-        <v>321.2943199146157</v>
+        <v>321.1889786599017</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23840,28 +23899,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3890801460069413</v>
+        <v>-0.3844703596963188</v>
       </c>
       <c r="J3" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0770799120746849</v>
+        <v>0.07559412139092525</v>
       </c>
       <c r="M3" t="n">
-        <v>7.728082923381898</v>
+        <v>7.731817105747019</v>
       </c>
       <c r="N3" t="n">
-        <v>93.65732025193441</v>
+        <v>93.63527684424754</v>
       </c>
       <c r="O3" t="n">
-        <v>9.677671220491757</v>
+        <v>9.676532273714978</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4062910485176</v>
+        <v>323.3570524659577</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23918,28 +23977,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4834671129391416</v>
+        <v>-0.4830516703483436</v>
       </c>
       <c r="J4" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1404391389677188</v>
+        <v>0.1408424568062795</v>
       </c>
       <c r="M4" t="n">
-        <v>6.725770140228261</v>
+        <v>6.710371763536736</v>
       </c>
       <c r="N4" t="n">
-        <v>75.91239061461962</v>
+        <v>75.71701820148944</v>
       </c>
       <c r="O4" t="n">
-        <v>8.712771695311408</v>
+        <v>8.701552631656574</v>
       </c>
       <c r="P4" t="n">
-        <v>339.7034458002865</v>
+        <v>339.6990721234336</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23996,28 +24055,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4681526674303885</v>
+        <v>-0.4620771900094353</v>
       </c>
       <c r="J5" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K5" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1134167962233836</v>
+        <v>0.1108521149568689</v>
       </c>
       <c r="M5" t="n">
-        <v>7.606608092299211</v>
+        <v>7.620578184886581</v>
       </c>
       <c r="N5" t="n">
-        <v>90.29972878939499</v>
+        <v>90.46871369710527</v>
       </c>
       <c r="O5" t="n">
-        <v>9.502616944263037</v>
+        <v>9.511504281505911</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9536568624802</v>
+        <v>335.8886745306548</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24074,28 +24133,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4547937345567502</v>
+        <v>-0.4528028813436231</v>
       </c>
       <c r="J6" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K6" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.111300768225161</v>
+        <v>0.1108735696137347</v>
       </c>
       <c r="M6" t="n">
-        <v>7.301395516513994</v>
+        <v>7.294032077335417</v>
       </c>
       <c r="N6" t="n">
-        <v>85.74069708284185</v>
+        <v>85.56587060681186</v>
       </c>
       <c r="O6" t="n">
-        <v>9.259627264789973</v>
+        <v>9.250182193168515</v>
       </c>
       <c r="P6" t="n">
-        <v>334.736334458178</v>
+        <v>334.7150380060751</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24152,28 +24211,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3985787732703783</v>
+        <v>-0.3950338625087746</v>
       </c>
       <c r="J7" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09824313148396191</v>
+        <v>0.09692773652516029</v>
       </c>
       <c r="M7" t="n">
-        <v>6.850304046084365</v>
+        <v>6.853127560814668</v>
       </c>
       <c r="N7" t="n">
-        <v>77.68574782634907</v>
+        <v>77.63633751265952</v>
       </c>
       <c r="O7" t="n">
-        <v>8.813951884730768</v>
+        <v>8.811148478641108</v>
       </c>
       <c r="P7" t="n">
-        <v>343.4999151634646</v>
+        <v>343.4626180472023</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24230,28 +24289,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.294595352697325</v>
+        <v>-0.2897620810918639</v>
       </c>
       <c r="J8" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K8" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05022033652874636</v>
+        <v>0.04875553106104324</v>
       </c>
       <c r="M8" t="n">
-        <v>7.326522649312326</v>
+        <v>7.335444765581698</v>
       </c>
       <c r="N8" t="n">
-        <v>87.94048916923484</v>
+        <v>87.98041679556655</v>
       </c>
       <c r="O8" t="n">
-        <v>9.3776590452647</v>
+        <v>9.379787673266733</v>
       </c>
       <c r="P8" t="n">
-        <v>338.5645697049446</v>
+        <v>338.5141453878892</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24308,28 +24367,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2255037700812274</v>
+        <v>-0.2221148026038859</v>
       </c>
       <c r="J9" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K9" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02334667064934082</v>
+        <v>0.02274988109408205</v>
       </c>
       <c r="M9" t="n">
-        <v>8.325105821322007</v>
+        <v>8.322782034700591</v>
       </c>
       <c r="N9" t="n">
-        <v>112.4445391096982</v>
+        <v>112.2876549240662</v>
       </c>
       <c r="O9" t="n">
-        <v>10.60398694405544</v>
+        <v>10.59658694694033</v>
       </c>
       <c r="P9" t="n">
-        <v>331.463903910736</v>
+        <v>331.4281190005156</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24386,28 +24445,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1988646387411266</v>
+        <v>-0.1987015861996158</v>
       </c>
       <c r="J10" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K10" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01463071688601358</v>
+        <v>0.01467034645659193</v>
       </c>
       <c r="M10" t="n">
-        <v>9.456931455109498</v>
+        <v>9.435306337264839</v>
       </c>
       <c r="N10" t="n">
-        <v>143.8377651903429</v>
+        <v>143.4956214582492</v>
       </c>
       <c r="O10" t="n">
-        <v>11.99323831124617</v>
+        <v>11.9789657925152</v>
       </c>
       <c r="P10" t="n">
-        <v>328.4064858596358</v>
+        <v>328.4047679948826</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24445,7 +24504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K496"/>
+  <dimension ref="A1:K497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49189,6 +49248,63 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-46.613320767270345,168.83152213278464</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-46.61277752241586,168.83194961586537</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-46.61217362342253,168.8322440429481</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-46.61154260648407,168.8321582298828</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-46.61092557426193,168.83224636558037</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-46.61031343501369,168.83203143496598</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-46.60974789816354,168.8317292089775</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-46.609160793838036,168.83145086302298</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-46.608569820147736,168.83117994960406</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K497"/>
+  <dimension ref="A1:K499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18066,6 +18066,84 @@
       <c r="K497" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>301.1385714285714</v>
+      </c>
+      <c r="C498" t="n">
+        <v>306.0290909090909</v>
+      </c>
+      <c r="D498" t="n">
+        <v>328.57</v>
+      </c>
+      <c r="E498" t="n">
+        <v>325.4890909090909</v>
+      </c>
+      <c r="F498" t="n">
+        <v>320.0990909090909</v>
+      </c>
+      <c r="G498" t="n">
+        <v>323.77</v>
+      </c>
+      <c r="H498" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="I498" t="n">
+        <v>309.4990909090909</v>
+      </c>
+      <c r="J498" t="n">
+        <v>304.0290909090909</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>321.6742857142857</v>
+      </c>
+      <c r="C499" t="n">
+        <v>328.2972727272727</v>
+      </c>
+      <c r="D499" t="n">
+        <v>333.87</v>
+      </c>
+      <c r="E499" t="n">
+        <v>332.5572727272727</v>
+      </c>
+      <c r="F499" t="n">
+        <v>324.5672727272727</v>
+      </c>
+      <c r="G499" t="n">
+        <v>334.38</v>
+      </c>
+      <c r="H499" t="n">
+        <v>336.52</v>
+      </c>
+      <c r="I499" t="n">
+        <v>321.6072727272727</v>
+      </c>
+      <c r="J499" t="n">
+        <v>317.9172727272727</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18080,7 +18158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23648,6 +23726,26 @@
       </c>
       <c r="B556" t="n">
         <v>-1.03</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -23821,28 +23919,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.445261715472212</v>
+        <v>-0.4434598004920388</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K2" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06562861433690537</v>
+        <v>0.06552699689168662</v>
       </c>
       <c r="M2" t="n">
-        <v>9.481328297296267</v>
+        <v>9.485403504437256</v>
       </c>
       <c r="N2" t="n">
-        <v>145.3617887521191</v>
+        <v>145.1730134255822</v>
       </c>
       <c r="O2" t="n">
-        <v>12.05660768011131</v>
+        <v>12.0487764285666</v>
       </c>
       <c r="P2" t="n">
-        <v>321.1889786599017</v>
+        <v>321.1695987017293</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23899,28 +23997,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3844703596963188</v>
+        <v>-0.3807272726941581</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K3" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07559412139092525</v>
+        <v>0.07441614936237362</v>
       </c>
       <c r="M3" t="n">
-        <v>7.731817105747019</v>
+        <v>7.749058152657007</v>
       </c>
       <c r="N3" t="n">
-        <v>93.63527684424754</v>
+        <v>93.86093643205258</v>
       </c>
       <c r="O3" t="n">
-        <v>9.676532273714978</v>
+        <v>9.688185404504425</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3570524659577</v>
+        <v>323.3169434937324</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23977,28 +24075,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4830516703483436</v>
+        <v>-0.4790585521019299</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K4" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1408424568062795</v>
+        <v>0.1398622393903345</v>
       </c>
       <c r="M4" t="n">
-        <v>6.710371763536736</v>
+        <v>6.695421463840295</v>
       </c>
       <c r="N4" t="n">
-        <v>75.71701820148944</v>
+        <v>75.44620298295909</v>
       </c>
       <c r="O4" t="n">
-        <v>8.701552631656574</v>
+        <v>8.685977376378498</v>
       </c>
       <c r="P4" t="n">
-        <v>339.6990721234336</v>
+        <v>339.6569459814601</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24055,28 +24153,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4620771900094353</v>
+        <v>-0.457146288324462</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K5" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1108521149568689</v>
+        <v>0.1094720773750236</v>
       </c>
       <c r="M5" t="n">
-        <v>7.620578184886581</v>
+        <v>7.608692176916806</v>
       </c>
       <c r="N5" t="n">
-        <v>90.46871369710527</v>
+        <v>90.20075197015331</v>
       </c>
       <c r="O5" t="n">
-        <v>9.511504281505911</v>
+        <v>9.497407644728813</v>
       </c>
       <c r="P5" t="n">
-        <v>335.8886745306548</v>
+        <v>335.8358198643112</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24133,28 +24231,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4528028813436231</v>
+        <v>-0.4534033513119849</v>
       </c>
       <c r="J6" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K6" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1108735696137347</v>
+        <v>0.1120745351463749</v>
       </c>
       <c r="M6" t="n">
-        <v>7.294032077335417</v>
+        <v>7.26839739822432</v>
       </c>
       <c r="N6" t="n">
-        <v>85.56587060681186</v>
+        <v>85.1630149981001</v>
       </c>
       <c r="O6" t="n">
-        <v>9.250182193168515</v>
+        <v>9.228380952155156</v>
       </c>
       <c r="P6" t="n">
-        <v>334.7150380060751</v>
+        <v>334.7214600066704</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24211,28 +24309,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3950338625087746</v>
+        <v>-0.3988341378387072</v>
       </c>
       <c r="J7" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K7" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09692773652516029</v>
+        <v>0.09920396780648189</v>
       </c>
       <c r="M7" t="n">
-        <v>6.853127560814668</v>
+        <v>6.84457663682552</v>
       </c>
       <c r="N7" t="n">
-        <v>77.63633751265952</v>
+        <v>77.47716485511987</v>
       </c>
       <c r="O7" t="n">
-        <v>8.811148478641108</v>
+        <v>8.802111386202737</v>
       </c>
       <c r="P7" t="n">
-        <v>343.4626180472023</v>
+        <v>343.5026438576297</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24289,28 +24387,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2897620810918639</v>
+        <v>-0.2932535309610971</v>
       </c>
       <c r="J8" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K8" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04875553106104324</v>
+        <v>0.05007149932354049</v>
       </c>
       <c r="M8" t="n">
-        <v>7.335444765581698</v>
+        <v>7.343691226594875</v>
       </c>
       <c r="N8" t="n">
-        <v>87.98041679556655</v>
+        <v>88.03967119924101</v>
       </c>
       <c r="O8" t="n">
-        <v>9.379787673266733</v>
+        <v>9.382945763417851</v>
       </c>
       <c r="P8" t="n">
-        <v>338.5141453878892</v>
+        <v>338.5505851895929</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24367,28 +24465,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2221148026038859</v>
+        <v>-0.2316836950391724</v>
       </c>
       <c r="J9" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K9" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02274988109408205</v>
+        <v>0.02478968404772808</v>
       </c>
       <c r="M9" t="n">
-        <v>8.322782034700591</v>
+        <v>8.328674654311961</v>
       </c>
       <c r="N9" t="n">
-        <v>112.2876549240662</v>
+        <v>112.4123735410994</v>
       </c>
       <c r="O9" t="n">
-        <v>10.59658694694033</v>
+        <v>10.60247016223575</v>
       </c>
       <c r="P9" t="n">
-        <v>331.4281190005156</v>
+        <v>331.5293011391194</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24445,28 +24543,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1987015861996158</v>
+        <v>-0.209349052002975</v>
       </c>
       <c r="J10" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K10" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01467034645659193</v>
+        <v>0.01629379794516417</v>
       </c>
       <c r="M10" t="n">
-        <v>9.435306337264839</v>
+        <v>9.448079931315014</v>
       </c>
       <c r="N10" t="n">
-        <v>143.4956214582492</v>
+        <v>143.7484519265811</v>
       </c>
       <c r="O10" t="n">
-        <v>11.9789657925152</v>
+        <v>11.98951424898362</v>
       </c>
       <c r="P10" t="n">
-        <v>328.4047679948826</v>
+        <v>328.5171155921497</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24504,7 +24602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K497"/>
+  <dimension ref="A1:K499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49305,6 +49403,120 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-46.61342689016796,168.83184857342084</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-46.612840961802405,168.832144759164</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-46.61217234954075,168.83223688685726</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-46.61154563196461,168.832299581083</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-46.6109255709611,168.8323366561991</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-46.610290528295096,168.83225073945948</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-46.60967600633457,168.83201333235596</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-46.609079620787355,168.83172947223258</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-46.6085012471533,168.83141531038572</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-46.61334813765147,168.8316063253899</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-46.612755565906,168.831882076684</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-46.612160434978236,168.83216995637807</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-46.61154365972725,168.83220743673664</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-46.61092557309976,168.83227837932512</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-46.610304819228304,168.83211392132762</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-46.60973350333429,168.83178609900713</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-46.6091219987317,168.83158401936615</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-46.60854985474238,168.83124847643077</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K499"/>
+  <dimension ref="A1:K506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18144,6 +18144,279 @@
       <c r="K499" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>324.3628571428572</v>
+      </c>
+      <c r="C500" t="n">
+        <v>325.949090909091</v>
+      </c>
+      <c r="D500" t="n">
+        <v>329.65</v>
+      </c>
+      <c r="E500" t="n">
+        <v>330.5190909090909</v>
+      </c>
+      <c r="F500" t="n">
+        <v>330.1790909090909</v>
+      </c>
+      <c r="G500" t="n">
+        <v>337.09</v>
+      </c>
+      <c r="H500" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="I500" t="n">
+        <v>329.2490909090909</v>
+      </c>
+      <c r="J500" t="n">
+        <v>323.7390909090909</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>304.6442857142857</v>
+      </c>
+      <c r="C501" t="n">
+        <v>309.9772727272727</v>
+      </c>
+      <c r="D501" t="n">
+        <v>325.3833333333333</v>
+      </c>
+      <c r="E501" t="n">
+        <v>319.8372727272728</v>
+      </c>
+      <c r="F501" t="n">
+        <v>319.2772727272728</v>
+      </c>
+      <c r="G501" t="n">
+        <v>329.8066666666667</v>
+      </c>
+      <c r="H501" t="n">
+        <v>331.2866666666667</v>
+      </c>
+      <c r="I501" t="n">
+        <v>325.5372727272728</v>
+      </c>
+      <c r="J501" t="n">
+        <v>318.2672727272728</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>309.1585714285715</v>
+      </c>
+      <c r="C502" t="n">
+        <v>313.0472727272727</v>
+      </c>
+      <c r="D502" t="n">
+        <v>322.6966666666667</v>
+      </c>
+      <c r="E502" t="n">
+        <v>321.1072727272727</v>
+      </c>
+      <c r="F502" t="n">
+        <v>316.7972727272727</v>
+      </c>
+      <c r="G502" t="n">
+        <v>328.0633333333333</v>
+      </c>
+      <c r="H502" t="n">
+        <v>329.6733333333333</v>
+      </c>
+      <c r="I502" t="n">
+        <v>321.2372727272727</v>
+      </c>
+      <c r="J502" t="n">
+        <v>315.7472727272728</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>304.0671428571428</v>
+      </c>
+      <c r="C503" t="n">
+        <v>313.0072727272727</v>
+      </c>
+      <c r="D503" t="n">
+        <v>322.46</v>
+      </c>
+      <c r="E503" t="n">
+        <v>318.1172727272727</v>
+      </c>
+      <c r="F503" t="n">
+        <v>316.1572727272728</v>
+      </c>
+      <c r="G503" t="n">
+        <v>324.39</v>
+      </c>
+      <c r="H503" t="n">
+        <v>321.12</v>
+      </c>
+      <c r="I503" t="n">
+        <v>307.3072727272727</v>
+      </c>
+      <c r="J503" t="n">
+        <v>304.8472727272728</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>304.2757142857143</v>
+      </c>
+      <c r="C504" t="n">
+        <v>311.5518181818182</v>
+      </c>
+      <c r="D504" t="n">
+        <v>322.3033333333333</v>
+      </c>
+      <c r="E504" t="n">
+        <v>317.8818181818182</v>
+      </c>
+      <c r="F504" t="n">
+        <v>318.7418181818182</v>
+      </c>
+      <c r="G504" t="n">
+        <v>327.0266666666667</v>
+      </c>
+      <c r="H504" t="n">
+        <v>328.3866666666667</v>
+      </c>
+      <c r="I504" t="n">
+        <v>322.9218181818182</v>
+      </c>
+      <c r="J504" t="n">
+        <v>319.7418181818182</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>303.5257142857143</v>
+      </c>
+      <c r="C505" t="n">
+        <v>296.7936363636364</v>
+      </c>
+      <c r="D505" t="n">
+        <v>306.18</v>
+      </c>
+      <c r="E505" t="n">
+        <v>309.3536363636364</v>
+      </c>
+      <c r="F505" t="n">
+        <v>314.0736363636364</v>
+      </c>
+      <c r="G505" t="n">
+        <v>321.22</v>
+      </c>
+      <c r="H505" t="n">
+        <v>319.21</v>
+      </c>
+      <c r="I505" t="n">
+        <v>310.8936363636363</v>
+      </c>
+      <c r="J505" t="n">
+        <v>310.3936363636363</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>300.97</v>
+      </c>
+      <c r="C506" t="n">
+        <v>313.4981818181818</v>
+      </c>
+      <c r="D506" t="n">
+        <v>320.1933333333334</v>
+      </c>
+      <c r="E506" t="n">
+        <v>317.7381818181818</v>
+      </c>
+      <c r="F506" t="n">
+        <v>315.9781818181818</v>
+      </c>
+      <c r="G506" t="n">
+        <v>329.8966666666667</v>
+      </c>
+      <c r="H506" t="n">
+        <v>326.1566666666667</v>
+      </c>
+      <c r="I506" t="n">
+        <v>320.8181818181818</v>
+      </c>
+      <c r="J506" t="n">
+        <v>323.4981818181818</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18158,7 +18431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23746,6 +24019,76 @@
       </c>
       <c r="B558" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -23919,28 +24262,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4434598004920388</v>
+        <v>-0.4513565238977821</v>
       </c>
       <c r="J2" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06552699689168662</v>
+        <v>0.0695049955546776</v>
       </c>
       <c r="M2" t="n">
-        <v>9.485403504437256</v>
+        <v>9.431661746973399</v>
       </c>
       <c r="N2" t="n">
-        <v>145.1730134255822</v>
+        <v>143.6431877735596</v>
       </c>
       <c r="O2" t="n">
-        <v>12.0487764285666</v>
+        <v>11.9851236027652</v>
       </c>
       <c r="P2" t="n">
-        <v>321.1695987017293</v>
+        <v>321.2549568176184</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23997,28 +24340,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3807272726941581</v>
+        <v>-0.3854545854648477</v>
       </c>
       <c r="J3" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07441614936237362</v>
+        <v>0.07772318612733931</v>
       </c>
       <c r="M3" t="n">
-        <v>7.749058152657007</v>
+        <v>7.701286137763332</v>
       </c>
       <c r="N3" t="n">
-        <v>93.86093643205258</v>
+        <v>93.33883281114916</v>
       </c>
       <c r="O3" t="n">
-        <v>9.688185404504425</v>
+        <v>9.661202451617974</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3169434937324</v>
+        <v>323.3679769206315</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24075,28 +24418,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4790585521019299</v>
+        <v>-0.4985419995052053</v>
       </c>
       <c r="J4" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1398622393903345</v>
+        <v>0.1517370806481628</v>
       </c>
       <c r="M4" t="n">
-        <v>6.695421463840295</v>
+        <v>6.697972794356186</v>
       </c>
       <c r="N4" t="n">
-        <v>75.44620298295909</v>
+        <v>75.50478315130441</v>
       </c>
       <c r="O4" t="n">
-        <v>8.685977376378498</v>
+        <v>8.689348833560798</v>
       </c>
       <c r="P4" t="n">
-        <v>339.6569459814601</v>
+        <v>339.8636287055966</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24153,28 +24496,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.457146288324462</v>
+        <v>-0.4723429738284394</v>
       </c>
       <c r="J5" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1094720773750236</v>
+        <v>0.1182803897019296</v>
       </c>
       <c r="M5" t="n">
-        <v>7.608692176916806</v>
+        <v>7.585463050003952</v>
       </c>
       <c r="N5" t="n">
-        <v>90.20075197015331</v>
+        <v>89.56487081119676</v>
       </c>
       <c r="O5" t="n">
-        <v>9.497407644728813</v>
+        <v>9.463871872082629</v>
       </c>
       <c r="P5" t="n">
-        <v>335.8358198643112</v>
+        <v>335.9996858260666</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24231,28 +24574,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4534033513119849</v>
+        <v>-0.466928099739405</v>
       </c>
       <c r="J6" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1120745351463749</v>
+        <v>0.1206943818456233</v>
       </c>
       <c r="M6" t="n">
-        <v>7.26839739822432</v>
+        <v>7.242835076166569</v>
       </c>
       <c r="N6" t="n">
-        <v>85.1630149981001</v>
+        <v>84.39575260774448</v>
       </c>
       <c r="O6" t="n">
-        <v>9.228380952155156</v>
+        <v>9.186716094870054</v>
       </c>
       <c r="P6" t="n">
-        <v>334.7214600066704</v>
+        <v>334.8672617128232</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24309,28 +24652,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3988341378387072</v>
+        <v>-0.41403023939713</v>
       </c>
       <c r="J7" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09920396780648189</v>
+        <v>0.1082506996306054</v>
       </c>
       <c r="M7" t="n">
-        <v>6.84457663682552</v>
+        <v>6.82517036230221</v>
       </c>
       <c r="N7" t="n">
-        <v>77.47716485511987</v>
+        <v>76.91578115850152</v>
       </c>
       <c r="O7" t="n">
-        <v>8.802111386202737</v>
+        <v>8.770164260633978</v>
       </c>
       <c r="P7" t="n">
-        <v>343.5026438576297</v>
+        <v>343.6637232974796</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24387,28 +24730,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2932535309610971</v>
+        <v>-0.3019535178536212</v>
       </c>
       <c r="J8" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K8" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05007149932354049</v>
+        <v>0.05408438712748964</v>
       </c>
       <c r="M8" t="n">
-        <v>7.343691226594875</v>
+        <v>7.314328001454553</v>
       </c>
       <c r="N8" t="n">
-        <v>88.03967119924101</v>
+        <v>87.4349991272272</v>
       </c>
       <c r="O8" t="n">
-        <v>9.382945763417851</v>
+        <v>9.350668378636215</v>
       </c>
       <c r="P8" t="n">
-        <v>338.5505851895929</v>
+        <v>338.642176539477</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24465,28 +24808,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2316836950391724</v>
+        <v>-0.2501195926564368</v>
       </c>
       <c r="J9" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K9" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02478968404772808</v>
+        <v>0.02934105984180435</v>
       </c>
       <c r="M9" t="n">
-        <v>8.328674654311961</v>
+        <v>8.298049023943772</v>
       </c>
       <c r="N9" t="n">
-        <v>112.4123735410994</v>
+        <v>111.9370936649305</v>
       </c>
       <c r="O9" t="n">
-        <v>10.60247016223575</v>
+        <v>10.58003278184574</v>
       </c>
       <c r="P9" t="n">
-        <v>331.5293011391194</v>
+        <v>331.7254140914726</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24543,28 +24886,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.209349052002975</v>
+        <v>-0.2282702321336581</v>
       </c>
       <c r="J10" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K10" t="n">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01629379794516417</v>
+        <v>0.01970659761281324</v>
       </c>
       <c r="M10" t="n">
-        <v>9.448079931315014</v>
+        <v>9.402323426171236</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7484519265811</v>
+        <v>142.7245715159539</v>
       </c>
       <c r="O10" t="n">
-        <v>11.98951424898362</v>
+        <v>11.94673894901675</v>
       </c>
       <c r="P10" t="n">
-        <v>328.5171155921497</v>
+        <v>328.7178915230571</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24602,7 +24945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K499"/>
+  <dimension ref="A1:K506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49517,6 +49860,405 @@
         </is>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-46.61333782719862,168.83157460991055</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-46.612764570938396,168.8319097765351</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-46.612169921670734,168.83222324819099</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-46.61154422844948,168.83223400749097</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-46.61092557574364,168.83220518641997</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-46.610308469383426,168.83207897531054</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-46.6097480014262,168.831728800871</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-46.60914874455922,168.8314922198104</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-46.60857023059147,168.83117854084492</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-46.61341344612102,168.83180721847043</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-46.61282582102491,168.83209818510616</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-46.6121795132467,168.83227712934942</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-46.611547208940124,168.83237326101448</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-46.610925570564504,168.8323473748756</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-46.6102986592863,168.83217289540895</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-46.60971729104523,168.83185017167492</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-46.60913575346558,168.83153680911292</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-46.6085510797127,168.83124427199735</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-46.61339613428722,168.83175396599844</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-46.61281404795098,168.83206197039001</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-46.61218555292942,168.832311057652</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-46.6115468545877,168.83235670465797</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-46.610925569361605,168.83237972061673</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-46.61029631113699,168.83219537605063</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-46.60971229310912,168.83186992400596</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-46.60912070375571,168.83158846409617</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-46.60854225992274,168.8312745439138</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-46.613415659404374,168.8318140267004</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-46.61281420134614,168.8320624422429</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-46.61218608496056,168.83231404637382</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-46.6115476888467,168.83239568379713</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-46.61092556904968,168.83238806790484</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-46.61029136339662,168.83224274443367</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-46.60968579572752,168.83197464395155</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-46.60907194952836,168.83175580202848</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-46.608504110735,168.83140548185668</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-46.6134148595545,168.8318115663004</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-46.61281978283734,168.83207961125504</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-46.61218643715015,168.83231602482354</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-46.611547754541796,168.83239875330074</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-46.61092557030556,168.83235435861513</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-46.61029491481664,168.83220874407962</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-46.609708307149276,168.83188567689564</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-46.609126599554045,168.83156822801405</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-46.608556240495,168.83122655877207</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-46.613417735726784,168.83182041362957</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-46.61287637853043,168.83225370374433</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-46.612222682524504,168.8325196369133</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-46.611550133968414,168.83250993096692</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-46.61092556802995,168.83241524401936</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-46.61028709359737,168.83228362222476</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-46.609679878722645,168.83199802840008</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-46.609084501626576,168.83171271988255</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-46.60852352261397,168.83133885532405</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-46.61342753662137,168.83185056196425</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-46.61281231876892,168.83205665132144</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-46.61219118046615,168.83234267075522</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-46.61154779461832,168.83240062581646</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-46.61092556896228,168.8323904037227</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-46.610298780509936,168.8321717348404</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-46.609701398835284,168.83191297917847</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-46.6091192369645,168.83159349854446</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>-46.60856938743182,168.83118143480752</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K506"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18417,6 +18417,45 @@
       <c r="K506" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>322.8485714285715</v>
+      </c>
+      <c r="C507" t="n">
+        <v>314.4018181818182</v>
+      </c>
+      <c r="D507" t="n">
+        <v>334.4466666666667</v>
+      </c>
+      <c r="E507" t="n">
+        <v>340.2618181818182</v>
+      </c>
+      <c r="F507" t="n">
+        <v>340.7318181818182</v>
+      </c>
+      <c r="G507" t="n">
+        <v>344.9533333333333</v>
+      </c>
+      <c r="H507" t="n">
+        <v>346.7833333333333</v>
+      </c>
+      <c r="I507" t="n">
+        <v>339.9218181818182</v>
+      </c>
+      <c r="J507" t="n">
+        <v>339.2418181818182</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18431,7 +18470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24089,6 +24128,16 @@
       </c>
       <c r="B565" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -24945,7 +24994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K506"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50259,6 +50308,63 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-46.61334363436226,168.83159247303763</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-46.61280885343158,168.83204599173752</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-46.61215913861157,168.8321626740071</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-46.61154150984063,168.83210699644968</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-46.610925580588194,168.8320675510418</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-46.610319060608504,168.83197757595912</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-46.609765297900005,168.83166044301402</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-46.60918609822726,168.83136401043606</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-46.60862448854912,168.83099231143947</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -24311,28 +24311,28 @@
         <v>0.0402</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4513565238977821</v>
+        <v>-0.4448377497548932</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0695049955546776</v>
+        <v>0.06776190250233016</v>
       </c>
       <c r="M2" t="n">
-        <v>9.431661746973399</v>
+        <v>9.442751317359287</v>
       </c>
       <c r="N2" t="n">
-        <v>143.6431877735596</v>
+        <v>143.7320205257459</v>
       </c>
       <c r="O2" t="n">
-        <v>11.9851236027652</v>
+        <v>11.9888289889274</v>
       </c>
       <c r="P2" t="n">
-        <v>321.2549568176184</v>
+        <v>321.1842279879102</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24389,28 +24389,28 @@
         <v>0.0565</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3854545854648477</v>
+        <v>-0.3849131688406842</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07772318612733931</v>
+        <v>0.07786774072107827</v>
       </c>
       <c r="M3" t="n">
-        <v>7.701286137763332</v>
+        <v>7.685030789935091</v>
       </c>
       <c r="N3" t="n">
-        <v>93.33883281114916</v>
+        <v>93.11041561646653</v>
       </c>
       <c r="O3" t="n">
-        <v>9.661202451617974</v>
+        <v>9.649373845823703</v>
       </c>
       <c r="P3" t="n">
-        <v>323.3679769206315</v>
+        <v>323.3621152389154</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24467,28 +24467,28 @@
         <v>0.0905</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4985419995052053</v>
+        <v>-0.4949149125606864</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1517370806481628</v>
+        <v>0.1502374869021597</v>
       </c>
       <c r="M4" t="n">
-        <v>6.697972794356186</v>
+        <v>6.699356841508366</v>
       </c>
       <c r="N4" t="n">
-        <v>75.50478315130441</v>
+        <v>75.46078637474773</v>
       </c>
       <c r="O4" t="n">
-        <v>8.689348833560798</v>
+        <v>8.686816814849253</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8636287055966</v>
+        <v>339.8249059711175</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24545,28 +24545,28 @@
         <v>0.0598</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4723429738284394</v>
+        <v>-0.4646102922090845</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1182803897019296</v>
+        <v>0.1145647707381782</v>
       </c>
       <c r="M5" t="n">
-        <v>7.585463050003952</v>
+        <v>7.61025774299456</v>
       </c>
       <c r="N5" t="n">
-        <v>89.56487081119676</v>
+        <v>90.0333033312385</v>
       </c>
       <c r="O5" t="n">
-        <v>9.463871872082629</v>
+        <v>9.48858805783234</v>
       </c>
       <c r="P5" t="n">
-        <v>335.9996858260666</v>
+        <v>335.9157779071707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24623,28 +24623,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.466928099739405</v>
+        <v>-0.4584759091781135</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1206943818456233</v>
+        <v>0.1163819652726764</v>
       </c>
       <c r="M6" t="n">
-        <v>7.242835076166569</v>
+        <v>7.274010993000537</v>
       </c>
       <c r="N6" t="n">
-        <v>84.39575260774448</v>
+        <v>84.9894588607219</v>
       </c>
       <c r="O6" t="n">
-        <v>9.186716094870054</v>
+        <v>9.21897276602561</v>
       </c>
       <c r="P6" t="n">
-        <v>334.8672617128232</v>
+        <v>334.7755954925806</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24701,28 +24701,28 @@
         <v>0.066</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.41403023939713</v>
+        <v>-0.4086098246615795</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1082506996306054</v>
+        <v>0.1057337340909302</v>
       </c>
       <c r="M7" t="n">
-        <v>6.82517036230221</v>
+        <v>6.839527706636633</v>
       </c>
       <c r="N7" t="n">
-        <v>76.91578115850152</v>
+        <v>77.08210349621891</v>
       </c>
       <c r="O7" t="n">
-        <v>8.770164260633978</v>
+        <v>8.779641421847415</v>
       </c>
       <c r="P7" t="n">
-        <v>343.6637232974796</v>
+        <v>343.6058844607841</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24779,28 +24779,28 @@
         <v>0.0683</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3019535178536212</v>
+        <v>-0.2947018276684604</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05408438712748964</v>
+        <v>0.05153423717055361</v>
       </c>
       <c r="M8" t="n">
-        <v>7.314328001454553</v>
+        <v>7.337837620762421</v>
       </c>
       <c r="N8" t="n">
-        <v>87.4349991272272</v>
+        <v>87.84118390442153</v>
       </c>
       <c r="O8" t="n">
-        <v>9.350668378636215</v>
+        <v>9.372362770636951</v>
       </c>
       <c r="P8" t="n">
-        <v>338.642176539477</v>
+        <v>338.5654570724691</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24857,28 +24857,28 @@
         <v>0.0608</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2501195926564368</v>
+        <v>-0.2433583669951055</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K9" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02934105984180435</v>
+        <v>0.02781922614333143</v>
       </c>
       <c r="M9" t="n">
-        <v>8.298049023943772</v>
+        <v>8.315226495125145</v>
       </c>
       <c r="N9" t="n">
-        <v>111.9370936649305</v>
+        <v>112.1911789828916</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58003278184574</v>
+        <v>10.59203375102684</v>
       </c>
       <c r="P9" t="n">
-        <v>331.7254140914726</v>
+        <v>331.6530195886236</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24935,28 +24935,28 @@
         <v>0.0609</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2282702321336581</v>
+        <v>-0.2213019913151083</v>
       </c>
       <c r="J10" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K10" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01970659761281324</v>
+        <v>0.01854076921256997</v>
       </c>
       <c r="M10" t="n">
-        <v>9.402323426171236</v>
+        <v>9.419388490550865</v>
       </c>
       <c r="N10" t="n">
-        <v>142.7245715159539</v>
+        <v>143.022255915916</v>
       </c>
       <c r="O10" t="n">
-        <v>11.94673894901675</v>
+        <v>11.95919127348986</v>
       </c>
       <c r="P10" t="n">
-        <v>328.7178915230571</v>
+        <v>328.6433867444395</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0553/nzd0553.xlsx
+++ b/data/nzd0553/nzd0553.xlsx
@@ -24302,13 +24302,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0346</v>
+        <v>0.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0402</v>
+        <v>0.0542</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4448381798952644</v>
@@ -24380,13 +24380,13 @@
         <v>0.874582096205243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0529</v>
+        <v>0.0516</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0565</v>
+        <v>0.0767</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3848889539648708</v>
@@ -24458,13 +24458,13 @@
         <v>0.7491641924104859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0667</v>
+        <v>0.0496</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0905</v>
+        <v>0.0697</v>
       </c>
       <c r="I4" t="n">
         <v>-0.4949180874381217</v>
@@ -24536,13 +24536,13 @@
         <v>0.6252430073112557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0485</v>
+        <v>0.0588</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0598</v>
+        <v>0.0868</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4645789827614908</v>
@@ -24614,13 +24614,13 @@
         <v>0.4998251035172604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0508</v>
+        <v>0.0584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.0867</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4584415083974319</v>
@@ -24695,10 +24695,10 @@
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0533</v>
+        <v>0.0536</v>
       </c>
       <c r="H7" t="n">
-        <v>0.066</v>
+        <v>0.0737</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4086112921243302</v>
@@ -24770,13 +24770,13 @@
         <v>0.2508358075912993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0568</v>
+        <v>0.053</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0683</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2946988046792686</v>
@@ -24851,10 +24851,10 @@
         <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0491</v>
+        <v>0.046</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0608</v>
+        <v>0.0692</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2433336869636513</v>
@@ -24926,13 +24926,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0478</v>
+        <v>0.0697</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0609</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2212706987268272</v>
